--- a/Project/project/stores/static/warehouse_db.xlsx
+++ b/Project/project/stores/static/warehouse_db.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -513,30 +513,30 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>78WZ923</t>
+          <t>WZ087SJ</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Black Flip-Flops</t>
+          <t>Red Jacket</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>INV29630</t>
+          <t>INV61222</t>
         </is>
       </c>
       <c r="G2" s="2" t="n">
-        <v>43288</v>
+        <v>43446</v>
       </c>
       <c r="H2" t="n">
         <v>19</v>
       </c>
       <c r="I2" t="n">
-        <v>99</v>
+        <v>29</v>
       </c>
       <c r="J2" t="n">
-        <v>1881</v>
+        <v>551</v>
       </c>
       <c r="K2" t="b">
         <v>0</v>
@@ -560,30 +560,30 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>FG458PD</t>
+          <t>WL0827P</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Red Blouse</t>
+          <t>Black Jacket</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>INV61365</t>
+          <t>INV7514</t>
         </is>
       </c>
       <c r="G3" s="2" t="n">
-        <v>43257</v>
+        <v>43415</v>
       </c>
       <c r="H3" t="n">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="I3" t="n">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="J3" t="n">
-        <v>1127</v>
+        <v>190</v>
       </c>
       <c r="K3" t="b">
         <v>0</v>
@@ -607,30 +607,30 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>GZ782SP</t>
+          <t>AK83534</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Dark Hat</t>
+          <t>Rose Dress</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>INV99681</t>
+          <t>INV80354</t>
         </is>
       </c>
       <c r="G4" s="2" t="n">
-        <v>43225</v>
+        <v>43383</v>
       </c>
       <c r="H4" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="J4" t="n">
-        <v>1725</v>
+        <v>39</v>
       </c>
       <c r="K4" t="b">
         <v>0</v>
@@ -654,30 +654,30 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>AZ8709A</t>
+          <t>MU09863</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Denim Pants</t>
+          <t>White T-Shirt</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>INV16240</t>
+          <t>INV25855</t>
         </is>
       </c>
       <c r="G5" s="2" t="n">
-        <v>43194</v>
+        <v>43352</v>
       </c>
       <c r="H5" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="I5" t="n">
-        <v>89</v>
+        <v>9</v>
       </c>
       <c r="J5" t="n">
-        <v>1513</v>
+        <v>99</v>
       </c>
       <c r="K5" t="b">
         <v>0</v>
@@ -686,45 +686,45 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Poniatowski</t>
+          <t>Sikorki</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>E-Commerce</t>
+          <t>Wholesale</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>West_Side</t>
+          <t>East_Side</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>WZ087SJ</t>
+          <t>WI034S2</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Red Jacket</t>
+          <t>Grey Shoes</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>INV61222</t>
+          <t>INV55320</t>
         </is>
       </c>
       <c r="G6" s="2" t="n">
-        <v>43446</v>
+        <v>43320</v>
       </c>
       <c r="H6" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="I6" t="n">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="J6" t="n">
-        <v>348</v>
+        <v>472</v>
       </c>
       <c r="K6" t="b">
         <v>0</v>
@@ -733,45 +733,45 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Poniatowski</t>
+          <t>Sikorki</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>E-Commerce</t>
+          <t>Wholesale</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>West_Side</t>
+          <t>East_Side</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>WL0827P</t>
+          <t>78WZ923</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Black Jacket</t>
+          <t>Black Flip-Flops</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>INV7514</t>
+          <t>INV29630</t>
         </is>
       </c>
       <c r="G7" s="2" t="n">
-        <v>43415</v>
+        <v>43288</v>
       </c>
       <c r="H7" t="n">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="I7" t="n">
-        <v>19</v>
+        <v>99</v>
       </c>
       <c r="J7" t="n">
-        <v>76</v>
+        <v>1881</v>
       </c>
       <c r="K7" t="b">
         <v>0</v>
@@ -780,45 +780,45 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Poniatowski</t>
+          <t>Sikorki</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>E-Commerce</t>
+          <t>Wholesale</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>West_Side</t>
+          <t>East_Side</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>AK83534</t>
+          <t>FG458PD</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Rose Dress</t>
+          <t>Red Blouse</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>INV80354</t>
+          <t>INV61365</t>
         </is>
       </c>
       <c r="G8" s="2" t="n">
-        <v>43383</v>
+        <v>43257</v>
       </c>
       <c r="H8" t="n">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="I8" t="n">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="J8" t="n">
-        <v>2145</v>
+        <v>1127</v>
       </c>
       <c r="K8" t="b">
         <v>0</v>
@@ -827,45 +827,45 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Poniatowski</t>
+          <t>Sikorki</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>E-Commerce</t>
+          <t>Wholesale</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>West_Side</t>
+          <t>East_Side</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>MU09863</t>
+          <t>GZ782SP</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>White T-Shirt</t>
+          <t>Dark Hat</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>INV25855</t>
+          <t>INV99681</t>
         </is>
       </c>
       <c r="G9" s="2" t="n">
-        <v>43352</v>
+        <v>43225</v>
       </c>
       <c r="H9" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I9" t="n">
-        <v>9</v>
+        <v>69</v>
       </c>
       <c r="J9" t="n">
-        <v>207</v>
+        <v>1725</v>
       </c>
       <c r="K9" t="b">
         <v>0</v>
@@ -874,45 +874,45 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Poniatowski</t>
+          <t>Sikorki</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>E-Commerce</t>
+          <t>Wholesale</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>West_Side</t>
+          <t>East_Side</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>WI034S2</t>
+          <t>AZ8709A</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Grey Shoes</t>
+          <t>Denim Pants</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>INV55320</t>
+          <t>INV16240</t>
         </is>
       </c>
       <c r="G10" s="2" t="n">
-        <v>43320</v>
+        <v>43194</v>
       </c>
       <c r="H10" t="n">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="I10" t="n">
-        <v>59</v>
+        <v>89</v>
       </c>
       <c r="J10" t="n">
-        <v>2596</v>
+        <v>1513</v>
       </c>
       <c r="K10" t="b">
         <v>0</v>
@@ -936,30 +936,30 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>78WZ923</t>
+          <t>WZ087SJ</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Black Flip-Flops</t>
+          <t>Red Jacket</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>INV29630</t>
+          <t>INV61222</t>
         </is>
       </c>
       <c r="G11" s="2" t="n">
-        <v>43288</v>
+        <v>43446</v>
       </c>
       <c r="H11" t="n">
         <v>12</v>
       </c>
       <c r="I11" t="n">
-        <v>99</v>
+        <v>29</v>
       </c>
       <c r="J11" t="n">
-        <v>1188</v>
+        <v>348</v>
       </c>
       <c r="K11" t="b">
         <v>0</v>
@@ -983,30 +983,30 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>FG458PD</t>
+          <t>WL0827P</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Red Blouse</t>
+          <t>Black Jacket</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>INV61365</t>
+          <t>INV7514</t>
         </is>
       </c>
       <c r="G12" s="2" t="n">
-        <v>43257</v>
+        <v>43415</v>
       </c>
       <c r="H12" t="n">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="I12" t="n">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="J12" t="n">
-        <v>1176</v>
+        <v>76</v>
       </c>
       <c r="K12" t="b">
         <v>0</v>
@@ -1030,30 +1030,30 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>GZ782SP</t>
+          <t>AK83534</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Dark Hat</t>
+          <t>Rose Dress</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>INV99681</t>
+          <t>INV80354</t>
         </is>
       </c>
       <c r="G13" s="2" t="n">
-        <v>43225</v>
+        <v>43383</v>
       </c>
       <c r="H13" t="n">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="I13" t="n">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="J13" t="n">
-        <v>828</v>
+        <v>2145</v>
       </c>
       <c r="K13" t="b">
         <v>0</v>
@@ -1077,30 +1077,30 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>AZ8709A</t>
+          <t>MU09863</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Denim Pants</t>
+          <t>White T-Shirt</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>INV16240</t>
+          <t>INV25855</t>
         </is>
       </c>
       <c r="G14" s="2" t="n">
-        <v>43194</v>
+        <v>43352</v>
       </c>
       <c r="H14" t="n">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="I14" t="n">
-        <v>89</v>
+        <v>9</v>
       </c>
       <c r="J14" t="n">
-        <v>445</v>
+        <v>207</v>
       </c>
       <c r="K14" t="b">
         <v>0</v>
@@ -1109,45 +1109,45 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Kulczewski</t>
+          <t>Poniatowski</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Licensee</t>
+          <t>E-Commerce</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>North_Side</t>
+          <t>West_Side</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>WZ087SJ</t>
+          <t>WI034S2</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Red Jacket</t>
+          <t>Grey Shoes</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>INV61222</t>
+          <t>INV55320</t>
         </is>
       </c>
       <c r="G15" s="2" t="n">
-        <v>43446</v>
+        <v>43320</v>
       </c>
       <c r="H15" t="n">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="I15" t="n">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="J15" t="n">
-        <v>1914</v>
+        <v>2596</v>
       </c>
       <c r="K15" t="b">
         <v>0</v>
@@ -1156,45 +1156,45 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Kulczewski</t>
+          <t>Poniatowski</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Licensee</t>
+          <t>E-Commerce</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>North_Side</t>
+          <t>West_Side</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>WL0827P</t>
+          <t>78WZ923</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Black Jacket</t>
+          <t>Black Flip-Flops</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>INV7514</t>
+          <t>INV29630</t>
         </is>
       </c>
       <c r="G16" s="2" t="n">
-        <v>43415</v>
+        <v>43288</v>
       </c>
       <c r="H16" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I16" t="n">
-        <v>19</v>
+        <v>99</v>
       </c>
       <c r="J16" t="n">
-        <v>475</v>
+        <v>1188</v>
       </c>
       <c r="K16" t="b">
         <v>0</v>
@@ -1203,45 +1203,45 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Kulczewski</t>
+          <t>Poniatowski</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Licensee</t>
+          <t>E-Commerce</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>North_Side</t>
+          <t>West_Side</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>AK83534</t>
+          <t>FG458PD</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Rose Dress</t>
+          <t>Red Blouse</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>INV80354</t>
+          <t>INV61365</t>
         </is>
       </c>
       <c r="G17" s="2" t="n">
-        <v>43383</v>
+        <v>43257</v>
       </c>
       <c r="H17" t="n">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="I17" t="n">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="J17" t="n">
-        <v>1287</v>
+        <v>1176</v>
       </c>
       <c r="K17" t="b">
         <v>0</v>
@@ -1250,45 +1250,45 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Kulczewski</t>
+          <t>Poniatowski</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Licensee</t>
+          <t>E-Commerce</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>North_Side</t>
+          <t>West_Side</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>MU09863</t>
+          <t>GZ782SP</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>White T-Shirt</t>
+          <t>Dark Hat</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>INV25855</t>
+          <t>INV99681</t>
         </is>
       </c>
       <c r="G18" s="2" t="n">
-        <v>43352</v>
+        <v>43225</v>
       </c>
       <c r="H18" t="n">
         <v>12</v>
       </c>
       <c r="I18" t="n">
-        <v>9</v>
+        <v>69</v>
       </c>
       <c r="J18" t="n">
-        <v>108</v>
+        <v>828</v>
       </c>
       <c r="K18" t="b">
         <v>0</v>
@@ -1297,45 +1297,45 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Kulczewski</t>
+          <t>Poniatowski</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Licensee</t>
+          <t>E-Commerce</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>North_Side</t>
+          <t>West_Side</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>WI034S2</t>
+          <t>AZ8709A</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Grey Shoes</t>
+          <t>Denim Pants</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>INV55320</t>
+          <t>INV16240</t>
         </is>
       </c>
       <c r="G19" s="2" t="n">
-        <v>43320</v>
+        <v>43194</v>
       </c>
       <c r="H19" t="n">
-        <v>66</v>
+        <v>5</v>
       </c>
       <c r="I19" t="n">
-        <v>59</v>
+        <v>89</v>
       </c>
       <c r="J19" t="n">
-        <v>3894</v>
+        <v>445</v>
       </c>
       <c r="K19" t="b">
         <v>0</v>
@@ -1359,30 +1359,30 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>78WZ923</t>
+          <t>WZ087SJ</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Black Flip-Flops</t>
+          <t>Red Jacket</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>INV29630</t>
+          <t>INV61222</t>
         </is>
       </c>
       <c r="G20" s="2" t="n">
-        <v>43288</v>
+        <v>43446</v>
       </c>
       <c r="H20" t="n">
-        <v>23</v>
+        <v>66</v>
       </c>
       <c r="I20" t="n">
-        <v>99</v>
+        <v>29</v>
       </c>
       <c r="J20" t="n">
-        <v>2277</v>
+        <v>1914</v>
       </c>
       <c r="K20" t="b">
         <v>0</v>
@@ -1406,30 +1406,30 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>FG458PD</t>
+          <t>WL0827P</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Red Blouse</t>
+          <t>Black Jacket</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>INV61365</t>
+          <t>INV7514</t>
         </is>
       </c>
       <c r="G21" s="2" t="n">
-        <v>43257</v>
+        <v>43415</v>
       </c>
       <c r="H21" t="n">
-        <v>222</v>
+        <v>25</v>
       </c>
       <c r="I21" t="n">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="J21" t="n">
-        <v>10878</v>
+        <v>475</v>
       </c>
       <c r="K21" t="b">
         <v>0</v>
@@ -1453,30 +1453,30 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>GZ782SP</t>
+          <t>AK83534</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Dark Hat</t>
+          <t>Rose Dress</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>INV99681</t>
+          <t>INV80354</t>
         </is>
       </c>
       <c r="G22" s="2" t="n">
-        <v>43225</v>
+        <v>43383</v>
       </c>
       <c r="H22" t="n">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="I22" t="n">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="J22" t="n">
-        <v>759</v>
+        <v>1287</v>
       </c>
       <c r="K22" t="b">
         <v>0</v>
@@ -1500,30 +1500,30 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>AZ8709A</t>
+          <t>MU09863</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Denim Pants</t>
+          <t>White T-Shirt</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>INV16240</t>
+          <t>INV25855</t>
         </is>
       </c>
       <c r="G23" s="2" t="n">
-        <v>43194</v>
+        <v>43352</v>
       </c>
       <c r="H23" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I23" t="n">
-        <v>89</v>
+        <v>9</v>
       </c>
       <c r="J23" t="n">
-        <v>445</v>
+        <v>108</v>
       </c>
       <c r="K23" t="b">
         <v>0</v>
@@ -1532,47 +1532,235 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>Kulczewski</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>Licensee</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>North_Side</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>WI034S2</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>Grey Shoes</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>INV55320</t>
         </is>
       </c>
       <c r="G24" s="2" t="n">
-        <v>43101</v>
+        <v>43320</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>66</v>
       </c>
       <c r="I24" t="n">
-        <v>4</v>
+        <v>59</v>
       </c>
       <c r="J24" t="n">
-        <v>8</v>
+        <v>3894</v>
       </c>
       <c r="K24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Kulczewski</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Licensee</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>North_Side</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>78WZ923</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Black Flip-Flops</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>INV29630</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="n">
+        <v>43288</v>
+      </c>
+      <c r="H25" t="n">
+        <v>23</v>
+      </c>
+      <c r="I25" t="n">
+        <v>99</v>
+      </c>
+      <c r="J25" t="n">
+        <v>2277</v>
+      </c>
+      <c r="K25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Kulczewski</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Licensee</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>North_Side</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>FG458PD</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Red Blouse</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>INV61365</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="n">
+        <v>43257</v>
+      </c>
+      <c r="H26" t="n">
+        <v>222</v>
+      </c>
+      <c r="I26" t="n">
+        <v>49</v>
+      </c>
+      <c r="J26" t="n">
+        <v>10878</v>
+      </c>
+      <c r="K26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Kulczewski</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Licensee</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>North_Side</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>GZ782SP</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Dark Hat</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>INV99681</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="n">
+        <v>43225</v>
+      </c>
+      <c r="H27" t="n">
+        <v>11</v>
+      </c>
+      <c r="I27" t="n">
+        <v>69</v>
+      </c>
+      <c r="J27" t="n">
+        <v>759</v>
+      </c>
+      <c r="K27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Kulczewski</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Licensee</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>North_Side</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>AZ8709A</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Denim Pants</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>INV16240</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="n">
+        <v>43194</v>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+      <c r="I28" t="n">
+        <v>89</v>
+      </c>
+      <c r="J28" t="n">
+        <v>445</v>
+      </c>
+      <c r="K28" t="b">
         <v>0</v>
       </c>
     </row>
